--- a/Content/Values.xlsx
+++ b/Content/Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FINAL YEAR PROJECTS\GoblinSeige\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7726B2-6229-4B0B-8E04-28646D3695AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC4488-5426-413E-A183-31DFAE05243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="0" windowWidth="29136" windowHeight="10680" xr2:uid="{C32A0C1F-5137-4348-85F9-62B9018334D3}"/>
+    <workbookView xWindow="4332" yWindow="4848" windowWidth="21804" windowHeight="14616" xr2:uid="{C32A0C1F-5137-4348-85F9-62B9018334D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Arrow</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Range</t>
+  </si>
+  <si>
+    <t>Stats when bought</t>
+  </si>
+  <si>
+    <t>Starting Balance</t>
   </si>
 </sst>
 </file>
@@ -215,11 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,22 +238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB0AAE9-C791-45BF-A424-3C82D7F1DAF6}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,10 +588,11 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -612,7 +608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -620,7 +616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -636,18 +632,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -664,7 +659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,7 +676,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -698,7 +693,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -732,54 +727,63 @@
         <v>590</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
         <v>1</v>
@@ -788,10 +792,9 @@
         <v>25</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="3"/>
@@ -803,10 +806,9 @@
         <v>35</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="3"/>
@@ -818,10 +820,9 @@
         <v>45</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="3"/>
@@ -833,60 +834,58 @@
         <v>50</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -894,9 +893,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>7</v>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -904,9 +903,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>8</v>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -914,9 +913,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>9</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -924,57 +923,57 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>15</v>
+      <c r="A37" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -983,8 +982,8 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>7</v>
+      <c r="A38" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -993,8 +992,8 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>8</v>
+      <c r="A39" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1003,8 +1002,8 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>9</v>
+      <c r="A40" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1012,57 +1011,57 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>15</v>
+      <c r="A46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1071,8 +1070,8 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>7</v>
+      <c r="A47" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1081,8 +1080,8 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>8</v>
+      <c r="A48" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1091,8 +1090,8 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>9</v>
+      <c r="A49" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1100,22 +1099,12 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
